--- a/ITERACION 5/ENTREGABLE FINAL/PLAN DE PRUEBAS/CASOS DE PRUEBA CC/CP_CC_CUS014_AGREGAR INCUMPLIMIENTO.xlsx
+++ b/ITERACION 5/ENTREGABLE FINAL/PLAN DE PRUEBAS/CASOS DE PRUEBA CC/CP_CC_CUS014_AGREGAR INCUMPLIMIENTO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="39">
   <si>
     <t>Escenario ID</t>
   </si>
@@ -126,10 +126,13 @@
     <t>Sistema cumple con los requisitos</t>
   </si>
   <si>
-    <t>No se concilia</t>
-  </si>
-  <si>
     <t>Por incumplimiento de cláusula</t>
+  </si>
+  <si>
+    <t>SC1 - Agregar incumplimiento - Registro de incumplimiento satisfactorio</t>
+  </si>
+  <si>
+    <t>No hay conciliación</t>
   </si>
 </sst>
 </file>
@@ -270,6 +273,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -277,12 +286,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -864,12 +867,12 @@
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1124,7 +1127,7 @@
   <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,24 +1184,24 @@
         <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F3" s="2">
         <v>1225</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="12">
+      <c r="I3" s="9">
         <v>41013</v>
       </c>
       <c r="J3" s="7" t="s">
